--- a/doc/design/Database.xlsx
+++ b/doc/design/Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Type</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Discount:int</t>
+  </si>
+  <si>
+    <t>DateEnd: timestamp(6)</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -368,28 +371,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,18 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,6 +406,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -770,7 +776,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,14 +796,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="36"/>
+      <c r="D1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="1"/>
       <c r="G1" s="6" t="s">
         <v>14</v>
@@ -809,17 +815,17 @@
       <c r="K1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="39"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="37"/>
+      <c r="D2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="1"/>
       <c r="G2" s="7" t="s">
         <v>10</v>
@@ -831,17 +837,17 @@
       <c r="K2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="40"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="33"/>
+      <c r="D3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="33"/>
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
@@ -855,14 +861,14 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="33"/>
+      <c r="D4" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="33"/>
       <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
@@ -876,14 +882,14 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="D5" s="22" t="s">
+      <c r="B5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="33"/>
       <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
@@ -896,14 +902,14 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="33"/>
+      <c r="D6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="39"/>
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
@@ -916,14 +922,14 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="33"/>
+      <c r="D7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="5" t="s">
         <v>19</v>
       </c>
@@ -936,10 +942,10 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="41"/>
       <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
@@ -952,10 +958,10 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
@@ -965,38 +971,38 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="D10" s="16" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="D10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="41"/>
       <c r="G10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="41"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="D11" s="16" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="D11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="41"/>
       <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="41"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="D12" s="16" t="s">
+      <c r="B12" s="36"/>
+      <c r="D12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="41"/>
       <c r="G12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1006,14 +1012,14 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="37"/>
+      <c r="D13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="33"/>
       <c r="G13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1023,14 +1029,14 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="A14" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="D14" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="33"/>
       <c r="G14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1040,10 +1046,10 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="17"/>
+      <c r="A15" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="41"/>
       <c r="G15" s="15" t="s">
         <v>37</v>
       </c>
@@ -1053,65 +1059,65 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="17"/>
+      <c r="A16" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="41"/>
       <c r="E16" s="8"/>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="D17" s="31" t="s">
+      <c r="A17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="D17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="25"/>
+      <c r="E17" s="35"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="D18" s="33" t="s">
+      <c r="A18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="D18" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="G18" s="35" t="s">
+      <c r="E18" s="32"/>
+      <c r="G18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="D19" s="33" t="s">
+      <c r="A19" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="D19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="G19" s="29" t="s">
+      <c r="E19" s="32"/>
+      <c r="G19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="9" t="s">
         <v>25</v>
       </c>
@@ -1119,48 +1125,54 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="G20" s="29" t="s">
+      <c r="E20" s="33"/>
+      <c r="G20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="24" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="26"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1183,22 +1195,32 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -1209,16 +1231,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
